--- a/模型訓練過程/pung模型.xlsx
+++ b/模型訓練過程/pung模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD487BA9-6B30-459A-9EB3-C6849972AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FAC4A-6F23-458A-873D-33A8A5E3FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="2856" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1956" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -477,6 +477,9 @@
       <c r="B4" s="4">
         <v>0.53125</v>
       </c>
+      <c r="C4" s="5">
+        <v>0.4834</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -485,6 +488,9 @@
       <c r="B5" s="5">
         <v>0.59375</v>
       </c>
+      <c r="C5" s="5">
+        <v>0.48880000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -493,6 +499,9 @@
       <c r="B6" s="5">
         <v>0.6875</v>
       </c>
+      <c r="C6" s="5">
+        <v>0.4945</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -500,6 +509,9 @@
       </c>
       <c r="B7" s="5">
         <v>0.75</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/模型訓練過程/pung模型.xlsx
+++ b/模型訓練過程/pung模型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\模型訓練過程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FAC4A-6F23-458A-873D-33A8A5E3FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D518E4-4940-4D0F-B062-E98939DD5184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1956" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22608" yWindow="780" windowWidth="21600" windowHeight="11292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>模型類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,37 @@
   </si>
   <si>
     <t>驗證總準確率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型類別</t>
+  </si>
+  <si>
+    <t>層數</t>
+  </si>
+  <si>
+    <t>批次大小</t>
+  </si>
+  <si>
+    <t>學習率</t>
+  </si>
+  <si>
+    <t>優化器</t>
+  </si>
+  <si>
+    <t>開始時間</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>新特徵</t>
+  </si>
+  <si>
+    <t>定時儲存訓練時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -125,6 +156,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -405,21 +438,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -459,7 +492,7 @@
         <v>45703</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -470,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.05</v>
       </c>
@@ -481,7 +514,7 @@
         <v>0.4834</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>5.0694444444444445E-2</v>
       </c>
@@ -492,7 +525,7 @@
         <v>0.48880000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.12291666666666666</v>
       </c>
@@ -503,7 +536,7 @@
         <v>0.4945</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.12569444444444444</v>
       </c>
@@ -514,20 +547,245 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45717.090277777781</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.54910000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.78125</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.61319999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.84375</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2.375</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.62890000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.60289999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.63780000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.61770000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.63281200000000004</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>